--- a/home/複利計算.xlsx
+++ b/home/複利計算.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,8 +44,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,7 +186,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,21 +363,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -390,7 +385,7 @@
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,403 +402,403 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12000</v>
+        <v>618657</v>
       </c>
       <c r="C2" s="1">
-        <v>0.04</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D2">
         <f>(A2+B2)*C2</f>
-        <v>480</v>
+        <v>35882.106</v>
       </c>
       <c r="E2">
         <f>A2+B2+D2</f>
-        <v>12480</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>654539.10600000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <f>E2</f>
-        <v>12480</v>
+        <v>654539.10600000003</v>
       </c>
       <c r="B3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0.04</v>
       </c>
       <c r="D3">
         <f>(A3+B3)*C3</f>
-        <v>979.2</v>
+        <v>26181.564240000003</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" si="0">A3+B3+D3</f>
-        <v>25459.200000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>680720.67024000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <f t="shared" ref="A4:A21" si="1">E3</f>
-        <v>25459.200000000001</v>
+        <v>680720.67024000001</v>
       </c>
       <c r="B4">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0.04</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D21" si="2">(A4+B4)*C4</f>
-        <v>1498.3679999999999</v>
+        <v>27228.826809599999</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>38957.567999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>707949.4970496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>38957.567999999999</v>
+        <v>707949.4970496</v>
       </c>
       <c r="B5">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0.04</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>2038.3027199999999</v>
+        <v>28317.979881984</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>52995.870719999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>736267.47693158395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>52995.870719999999</v>
+        <v>736267.47693158395</v>
       </c>
       <c r="B6">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>0.04</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>2599.8348288000002</v>
+        <v>29450.699077263358</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>67595.705548800004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>765718.17600884731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>67595.705548800004</v>
+        <v>765718.17600884731</v>
       </c>
       <c r="B7">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>0.04</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>3183.8282219520001</v>
+        <v>30628.727040353893</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>82779.533770752008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>796346.90304920124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>82779.533770752008</v>
+        <v>796346.90304920124</v>
       </c>
       <c r="B8">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>0.04</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>3791.1813508300802</v>
+        <v>31853.876121968049</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>98570.715121582092</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>828200.77917116927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>98570.715121582092</v>
+        <v>828200.77917116927</v>
       </c>
       <c r="B9">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>0.04</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>4422.8286048632835</v>
+        <v>33128.031166846769</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>114993.54372644538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>861328.81033801602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>114993.54372644538</v>
+        <v>861328.81033801602</v>
       </c>
       <c r="B10">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>0.04</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>5079.7417490578155</v>
+        <v>34453.152413520642</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>132073.28547550319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>895781.96275153663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <f t="shared" si="1"/>
-        <v>132073.28547550319</v>
+        <v>895781.96275153663</v>
       </c>
       <c r="B11">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>0.04</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>5762.9314190201276</v>
+        <v>35831.278510061464</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>149836.21689452333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>931613.24126159807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <f t="shared" si="1"/>
-        <v>149836.21689452333</v>
+        <v>931613.24126159807</v>
       </c>
       <c r="B12">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>0.04</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>6473.4486757809336</v>
+        <v>37264.529650463926</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>168309.66557030426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>968877.77091206203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <f t="shared" si="1"/>
-        <v>168309.66557030426</v>
+        <v>968877.77091206203</v>
       </c>
       <c r="B13">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>0.04</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>7212.3866228121706</v>
+        <v>38755.110836482483</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>187522.05219311643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1007632.8817485445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <f t="shared" si="1"/>
-        <v>187522.05219311643</v>
+        <v>1007632.8817485445</v>
       </c>
       <c r="B14">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>0.04</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>7980.8820877246571</v>
+        <v>40305.315269941784</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>207502.93428084109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1047938.1970184863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <f t="shared" si="1"/>
-        <v>207502.93428084109</v>
+        <v>1047938.1970184863</v>
       </c>
       <c r="B15">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>0.04</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>8780.117371233644</v>
+        <v>41917.527880739457</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>228283.05165207473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1089855.7248992259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <f t="shared" si="1"/>
-        <v>228283.05165207473</v>
+        <v>1089855.7248992259</v>
       </c>
       <c r="B16">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>0.04</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>9611.3220660829902</v>
+        <v>43594.228995969039</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>249894.37371815773</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1133449.9538951949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" si="1"/>
-        <v>249894.37371815773</v>
+        <v>1133449.9538951949</v>
       </c>
       <c r="B17">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>0.04</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>10475.77494872631</v>
+        <v>45337.9981558078</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>272370.14866688405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1178787.9520510028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" si="1"/>
-        <v>272370.14866688405</v>
+        <v>1178787.9520510028</v>
       </c>
       <c r="B18">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>0.04</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>11374.805946675362</v>
+        <v>47151.518082040115</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>295744.95461355941</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1225939.4701330429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" si="1"/>
-        <v>295744.95461355941</v>
+        <v>1225939.4701330429</v>
       </c>
       <c r="B19">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>0.04</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>12309.798184542376</v>
+        <v>49037.578805321718</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>320054.75279810181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1274977.0489383647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" si="1"/>
-        <v>320054.75279810181</v>
+        <v>1274977.0489383647</v>
       </c>
       <c r="B20">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>0.04</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>13282.190111924072</v>
+        <v>50999.081957534589</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>345336.94291002589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1325976.1308958994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" si="1"/>
-        <v>345336.94291002589</v>
+        <v>1325976.1308958994</v>
       </c>
       <c r="B21">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>0.04</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>14293.477716401036</v>
+        <v>53039.045235835976</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>371630.42062642693</v>
+        <v>1379015.1761317353</v>
       </c>
     </row>
   </sheetData>
